--- a/ToDoC++.xlsx
+++ b/ToDoC++.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Etapes pour le projet C++</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>(si temps) Mécaniques de sorts.</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Impl. Menus autres</t>
+  </si>
+  <si>
+    <t>Y not both?</t>
   </si>
 </sst>
 </file>
@@ -82,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +119,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,20 +149,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,179 +478,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="6">
+        <f>COUNTIF(F3:F17,"J")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="6">
+        <f>COUNTIF(F3:F17,"S")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>

--- a/ToDoC++.xlsx
+++ b/ToDoC++.xlsx
@@ -166,17 +166,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,226 +481,226 @@
   <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3">
         <f>COUNTIF(F3:F17,"J")</f>
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <f>COUNTIF(F3:F17,"S")</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
